--- a/assets/data/MSME Country Indicators - Suriname Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Suriname Summary.xlsx
@@ -5,27 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>MSME Participation on the Economy</t>
-  </si>
-  <si>
-    <t>Micro</t>
-  </si>
-  <si>
-    <t>SMEs</t>
-  </si>
-  <si>
-    <t>MSMEs</t>
   </si>
 </sst>
 </file>
@@ -33,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -44,6 +35,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -76,26 +73,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -103,7 +103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -119,17 +119,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Suriname Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Suriname Summary.xlsx
@@ -11,12 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>MSME Participation on the Economy</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>11-25</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>26-100</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
   </si>
 </sst>
 </file>
@@ -103,7 +139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -119,6 +155,73 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
